--- a/biology/Zoologie/Ctenus_crulsi/Ctenus_crulsi.xlsx
+++ b/biology/Zoologie/Ctenus_crulsi/Ctenus_crulsi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ctenus crulsi est une espèce d'araignées aranéomorphes de la famille des Ctenidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ctenus crulsi est une espèce d'araignées aranéomorphes de la famille des Ctenidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Brésil[1]. Elle se rencontre en Amazonie au Pará, en Amazonas et au Rondônia[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Brésil. Elle se rencontre en Amazonie au Pará, en Amazonas et au Rondônia.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle holotype mesure 15 mm[3].
-Les mâles mesurent de 13,60 à 17,50 mm et les femelles de 13,20 à 18,60 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle holotype mesure 15 mm.
+Les mâles mesurent de 13,60 à 17,50 mm et les femelles de 13,20 à 18,60 mm.
 </t>
         </is>
       </c>
@@ -574,10 +590,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été décrite par Mello-Leitão en 1930.
-La femelle holotype était déposée au Musée national de l'université fédérale de Rio de Janeiro. Elle a été détruite par l'incendie de celui-ci qui a eu lieu dans la nuit du 2 au 3 septembre 2018[1].
+La femelle holotype était déposée au Musée national de l'université fédérale de Rio de Janeiro. Elle a été détruite par l'incendie de celui-ci qui a eu lieu dans la nuit du 2 au 3 septembre 2018.
 </t>
         </is>
       </c>
@@ -606,9 +624,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Gastão Cruls[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Gastão Cruls.
 </t>
         </is>
       </c>
@@ -637,7 +657,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Mello-Leitão, 1930 : « Aranhas do Cuminá. » Arquivos do Museu Nacional do Rio de Janeiro, vol. 32, p. 51-75.</t>
         </is>
